--- a/flag/pdf/GldLM/GldLM_gliding_motility_v1.xlsx
+++ b/flag/pdf/GldLM/GldLM_gliding_motility_v1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/bioinfRhints/flag/pdf/GldLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ECD36B-D3CC-9948-8369-7A8DE95B8951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68817E33-7A6F-D243-815B-4CB2CB7C9E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="6580" windowWidth="27640" windowHeight="16940" xr2:uid="{76C62D22-0B73-E84A-8E61-0C24E0A65C8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -304,9 +304,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -645,7 +644,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,34 +658,34 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -776,7 +775,7 @@
       <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>68</v>
       </c>
       <c r="I6" t="s">
@@ -808,7 +807,7 @@
       <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>68</v>
       </c>
       <c r="I7" t="s">
@@ -840,7 +839,7 @@
       <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>68</v>
       </c>
       <c r="I8" t="s">
@@ -854,7 +853,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
@@ -872,7 +871,7 @@
       <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>68</v>
       </c>
       <c r="I9" t="s">
@@ -904,13 +903,13 @@
       <c r="G10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -936,13 +935,13 @@
       <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -968,13 +967,13 @@
       <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>68</v>
       </c>
       <c r="I12" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1000,13 +999,13 @@
       <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>68</v>
       </c>
       <c r="I13" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>72</v>
       </c>
     </row>
